--- a/Task/2016-11-09-RA组织架构修改/组织架构表1109确定.xlsx
+++ b/Task/2016-11-09-RA组织架构修改/组织架构表1109确定.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="0" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="555" windowWidth="20610" windowHeight="11640"/>
+    <workbookView xWindow="540" yWindow="555" windowWidth="13740" windowHeight="5190" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Results" sheetId="1" r:id="rId1"/>
     <sheet name="区域变更明细" sheetId="4" r:id="rId2"/>
     <sheet name="城市" sheetId="2" r:id="rId3"/>
     <sheet name="区域" sheetId="3" r:id="rId4"/>
+    <sheet name="RA" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">RA!$A$1:$R$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SQL Results'!$N$1:$Q$228</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="358">
   <si>
     <t>解放路店</t>
   </si>
@@ -1046,6 +1048,128 @@
   </si>
   <si>
     <t>新城市名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原城市编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原城市名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原区域编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原区域名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>城市是否变动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘潭河东</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘潭河东区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘潭河西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘潭河西区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘潭河西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘潭河西区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘潭河东</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘潭河东区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘乡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘乡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙主城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙主城区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙主城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙主城区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙新城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙主城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙主城区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙新城区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘潭河西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘潭河西区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韶山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域是否变动</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1056,7 +1180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -1097,6 +1221,29 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1150,7 +1297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1183,6 +1330,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1492,9 +1657,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q228"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O218" sqref="O218:P223"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q228" sqref="A1:Q228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4044,7 +4209,7 @@
       </c>
       <c r="N59">
         <f>VLOOKUP(O59,城市!$C$2:$F$7,2,0)</f>
-        <v>109001</v>
+        <v>108003</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>301</v>
@@ -4096,7 +4261,7 @@
       </c>
       <c r="N60">
         <f>VLOOKUP(O60,城市!$C$2:$F$7,2,0)</f>
-        <v>109001</v>
+        <v>108003</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>301</v>
@@ -4562,7 +4727,7 @@
       </c>
       <c r="N71">
         <f>VLOOKUP(O71,城市!$C$2:$F$7,2,0)</f>
-        <v>109001</v>
+        <v>108003</v>
       </c>
       <c r="O71" s="8" t="s">
         <v>301</v>
@@ -6680,7 +6845,7 @@
       </c>
       <c r="N121">
         <f>VLOOKUP(O121,城市!$C$2:$F$7,2,0)</f>
-        <v>109001</v>
+        <v>108003</v>
       </c>
       <c r="O121" s="8" t="s">
         <v>301</v>
@@ -6732,7 +6897,7 @@
       </c>
       <c r="N122">
         <f>VLOOKUP(O122,城市!$C$2:$F$7,2,0)</f>
-        <v>109001</v>
+        <v>108003</v>
       </c>
       <c r="O122" s="8" t="s">
         <v>301</v>
@@ -6906,7 +7071,7 @@
       </c>
       <c r="N126">
         <f>VLOOKUP(O126,城市!$C$2:$F$7,2,0)</f>
-        <v>109001</v>
+        <v>108003</v>
       </c>
       <c r="O126" s="8" t="s">
         <v>301</v>
@@ -6993,7 +7158,7 @@
       </c>
       <c r="N128">
         <f>VLOOKUP(O128,城市!$C$2:$F$7,2,0)</f>
-        <v>109001</v>
+        <v>108003</v>
       </c>
       <c r="O128" s="8" t="s">
         <v>301</v>
@@ -7042,7 +7207,7 @@
       </c>
       <c r="N129">
         <f>VLOOKUP(O129,城市!$C$2:$F$7,2,0)</f>
-        <v>109001</v>
+        <v>108003</v>
       </c>
       <c r="O129" s="8" t="s">
         <v>301</v>
@@ -8081,7 +8246,7 @@
       </c>
       <c r="N154">
         <f>VLOOKUP(O154,城市!$C$2:$F$7,2,0)</f>
-        <v>109001</v>
+        <v>108003</v>
       </c>
       <c r="O154" s="8" t="s">
         <v>301</v>
@@ -8536,7 +8701,7 @@
       </c>
       <c r="N165">
         <f>VLOOKUP(O165,城市!$C$2:$F$7,2,0)</f>
-        <v>109001</v>
+        <v>108003</v>
       </c>
       <c r="O165" s="8" t="s">
         <v>301</v>
@@ -9157,7 +9322,7 @@
       </c>
       <c r="N180">
         <f>VLOOKUP(O180,城市!$C$2:$F$7,2,0)</f>
-        <v>109001</v>
+        <v>108003</v>
       </c>
       <c r="O180" s="8" t="s">
         <v>301</v>
@@ -9760,7 +9925,7 @@
       </c>
       <c r="N195">
         <f>VLOOKUP(O195,城市!$C$2:$F$7,2,0)</f>
-        <v>109001</v>
+        <v>108003</v>
       </c>
       <c r="O195" s="8" t="s">
         <v>301</v>
@@ -9885,7 +10050,7 @@
       </c>
       <c r="N198">
         <f>VLOOKUP(O198,城市!$C$2:$F$7,2,0)</f>
-        <v>109001</v>
+        <v>108003</v>
       </c>
       <c r="O198" s="8" t="s">
         <v>301</v>
@@ -11117,7 +11282,7 @@
       </c>
       <c r="N228">
         <f>VLOOKUP(O228,城市!$C$2:$F$7,2,0)</f>
-        <v>109001</v>
+        <v>108003</v>
       </c>
       <c r="O228" s="8" t="s">
         <v>301</v>
@@ -14498,7 +14663,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -14598,7 +14763,7 @@
         <v>304</v>
       </c>
       <c r="D5" s="13">
-        <v>109001</v>
+        <v>108003</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>311</v>
@@ -14780,4 +14945,4887 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:R91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="18.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="13.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.33203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" hidden="1">
+      <c r="A2" s="18">
+        <v>120001</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>107002</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="18">
+        <v>107002</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H2" s="16">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="18">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M2" s="18">
+        <v>101</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="18">
+        <v>11</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>35056</v>
+      </c>
+      <c r="R2" s="18"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="18">
+        <v>120002</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="20">
+        <v>107002</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21">
+        <v>110003</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H3" s="22">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="23">
+        <v>10110</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M3" s="18">
+        <v>101</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="18">
+        <v>11</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>38240</v>
+      </c>
+      <c r="R3" s="18"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="18">
+        <v>120008</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="20">
+        <v>107002</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="21">
+        <v>110003</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H4" s="22">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="23">
+        <v>10110</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M4" s="18">
+        <v>101</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="18">
+        <v>11</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>37468</v>
+      </c>
+      <c r="R4" s="18"/>
+    </row>
+    <row r="5" spans="1:18" hidden="1">
+      <c r="A5" s="18">
+        <v>120009</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="16">
+        <v>107002</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18">
+        <v>107002</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H5" s="16">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="18">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M5" s="18">
+        <v>101</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="18">
+        <v>11</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>36764</v>
+      </c>
+      <c r="R5" s="19">
+        <v>40403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" hidden="1">
+      <c r="A6" s="18">
+        <v>120010</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="16">
+        <v>107002</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18">
+        <v>107002</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H6" s="16">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="18">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M6" s="18">
+        <v>101</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="18">
+        <v>11</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>39960</v>
+      </c>
+      <c r="R6" s="18"/>
+    </row>
+    <row r="7" spans="1:18" hidden="1">
+      <c r="A7" s="18">
+        <v>120011</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="16">
+        <v>107002</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18">
+        <v>107002</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H7" s="16">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="18">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M7" s="18">
+        <v>101</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="18">
+        <v>11</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>38280</v>
+      </c>
+      <c r="R7" s="18"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="18">
+        <v>120013</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="20">
+        <v>107002</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="21">
+        <v>110003</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H8" s="22">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="23">
+        <v>10110</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M8" s="18">
+        <v>101</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="18">
+        <v>11</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>39252</v>
+      </c>
+      <c r="R8" s="19">
+        <v>39993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" hidden="1">
+      <c r="A9" s="18">
+        <v>120014</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="16">
+        <v>107002</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18">
+        <v>107002</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H9" s="16">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="18">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M9" s="18">
+        <v>101</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="18">
+        <v>11</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>37275</v>
+      </c>
+      <c r="R9" s="18"/>
+    </row>
+    <row r="10" spans="1:18" hidden="1">
+      <c r="A10" s="18">
+        <v>120020</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="16">
+        <v>105002.99999999999</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H10" s="22">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="23">
+        <v>10111</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M10" s="18">
+        <v>101</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="18">
+        <v>11</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>37639</v>
+      </c>
+      <c r="R10" s="18"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="18">
+        <v>120024</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="20">
+        <v>107002</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="21">
+        <v>110003</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H11" s="22">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="23">
+        <v>10110</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M11" s="18">
+        <v>101</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="18">
+        <v>11</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>37948</v>
+      </c>
+      <c r="R11" s="19">
+        <v>42144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="18">
+        <v>120025</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="20">
+        <v>107002</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="21">
+        <v>110003</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H12" s="22">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="23">
+        <v>10110</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M12" s="18">
+        <v>101</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="18">
+        <v>11</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>39252</v>
+      </c>
+      <c r="R12" s="19">
+        <v>39253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" hidden="1">
+      <c r="A13" s="18">
+        <v>120026</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="20">
+        <v>107002</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="21">
+        <v>107004</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H13" s="16">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="18">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M13" s="18">
+        <v>101</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="18">
+        <v>11</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>37968</v>
+      </c>
+      <c r="R13" s="18"/>
+    </row>
+    <row r="14" spans="1:18" hidden="1">
+      <c r="A14" s="18">
+        <v>120027</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="20">
+        <v>107002</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="21">
+        <v>107004</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H14" s="16">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="18">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M14" s="18">
+        <v>101</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="18">
+        <v>11</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>37986</v>
+      </c>
+      <c r="R14" s="18"/>
+    </row>
+    <row r="15" spans="1:18" hidden="1">
+      <c r="A15" s="18">
+        <v>120033</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="16">
+        <v>107002</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18">
+        <v>107002</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H15" s="16">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="18">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M15" s="18">
+        <v>101</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="18">
+        <v>11</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>38172</v>
+      </c>
+      <c r="R15" s="18"/>
+    </row>
+    <row r="16" spans="1:18" hidden="1">
+      <c r="A16" s="18">
+        <v>120036</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="16">
+        <v>108001</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="18">
+        <v>108001</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H16" s="16">
+        <v>10108</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="18">
+        <v>10108</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M16" s="18">
+        <v>101</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="18">
+        <v>11</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>38255</v>
+      </c>
+      <c r="R16" s="18"/>
+    </row>
+    <row r="17" spans="1:18" hidden="1">
+      <c r="A17" s="18">
+        <v>120038</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="16">
+        <v>108001</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="18">
+        <v>108001</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H17" s="16">
+        <v>10108</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="18">
+        <v>10108</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M17" s="18">
+        <v>101</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="18">
+        <v>11</v>
+      </c>
+      <c r="P17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>38317</v>
+      </c>
+      <c r="R17" s="19">
+        <v>40177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" hidden="1">
+      <c r="A18" s="18">
+        <v>120045</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="16">
+        <v>105002.99999999999</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H18" s="22">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="23">
+        <v>10111</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M18" s="18">
+        <v>101</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="18">
+        <v>11</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>38541</v>
+      </c>
+      <c r="R18" s="18"/>
+    </row>
+    <row r="19" spans="1:18" hidden="1">
+      <c r="A19" s="18">
+        <v>120051</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="16">
+        <v>107001.00000000001</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H19" s="16">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="18">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M19" s="18">
+        <v>101</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="18">
+        <v>11</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>38618</v>
+      </c>
+      <c r="R19" s="18"/>
+    </row>
+    <row r="20" spans="1:18" hidden="1">
+      <c r="A20" s="18">
+        <v>120056</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="16">
+        <v>108001</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="18">
+        <v>108001</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H20" s="16">
+        <v>10108</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="18">
+        <v>10108</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M20" s="18">
+        <v>101</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="18">
+        <v>11</v>
+      </c>
+      <c r="P20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>38675</v>
+      </c>
+      <c r="R20" s="18"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="18">
+        <v>120062</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="20">
+        <v>107002</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="21">
+        <v>110003</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H21" s="22">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="23">
+        <v>10110</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M21" s="18">
+        <v>101</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="18">
+        <v>11</v>
+      </c>
+      <c r="P21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>38717</v>
+      </c>
+      <c r="R21" s="18"/>
+    </row>
+    <row r="22" spans="1:18" hidden="1">
+      <c r="A22" s="18">
+        <v>120066</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="16">
+        <v>108001</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="18">
+        <v>108001</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H22" s="16">
+        <v>10108</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="18">
+        <v>10108</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M22" s="18">
+        <v>101</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="18">
+        <v>11</v>
+      </c>
+      <c r="P22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>38836</v>
+      </c>
+      <c r="R22" s="18"/>
+    </row>
+    <row r="23" spans="1:18" hidden="1">
+      <c r="A23" s="18">
+        <v>120068</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="16">
+        <v>108001</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="18">
+        <v>108001</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H23" s="16">
+        <v>10108</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="18">
+        <v>10108</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M23" s="18">
+        <v>101</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="18">
+        <v>11</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="19">
+        <v>38836</v>
+      </c>
+      <c r="R23" s="18"/>
+    </row>
+    <row r="24" spans="1:18" hidden="1">
+      <c r="A24" s="18">
+        <v>120075</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="16">
+        <v>105002</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H24" s="22">
+        <v>10105</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="23">
+        <v>10111</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M24" s="18">
+        <v>101</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="18">
+        <v>11</v>
+      </c>
+      <c r="P24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>38991</v>
+      </c>
+      <c r="R24" s="18"/>
+    </row>
+    <row r="25" spans="1:18" hidden="1">
+      <c r="A25" s="18">
+        <v>120077</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="20">
+        <v>108001</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="21">
+        <v>108003</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H25" s="22">
+        <v>10108</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="23">
+        <v>10109</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M25" s="18">
+        <v>101</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" s="18">
+        <v>11</v>
+      </c>
+      <c r="P25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="19">
+        <v>38968</v>
+      </c>
+      <c r="R25" s="18"/>
+    </row>
+    <row r="26" spans="1:18" hidden="1">
+      <c r="A26" s="18">
+        <v>120078</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="20">
+        <v>108001</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="21">
+        <v>108003</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H26" s="22">
+        <v>10108</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="23">
+        <v>10109</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M26" s="18">
+        <v>101</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="18">
+        <v>11</v>
+      </c>
+      <c r="P26" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>38968</v>
+      </c>
+      <c r="R26" s="19">
+        <v>40281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="18">
+        <v>120081</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="20">
+        <v>107002</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="21">
+        <v>110003</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H27" s="22">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="23">
+        <v>10110</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M27" s="18">
+        <v>101</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="18">
+        <v>11</v>
+      </c>
+      <c r="P27" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="19">
+        <v>39261</v>
+      </c>
+      <c r="R27" s="18"/>
+    </row>
+    <row r="28" spans="1:18" hidden="1">
+      <c r="A28" s="18">
+        <v>120087</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="16">
+        <v>108001</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="18">
+        <v>108001</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H28" s="16">
+        <v>10108</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="18">
+        <v>10108</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M28" s="18">
+        <v>101</v>
+      </c>
+      <c r="N28" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28" s="18">
+        <v>11</v>
+      </c>
+      <c r="P28" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="19">
+        <v>39072</v>
+      </c>
+      <c r="R28" s="18"/>
+    </row>
+    <row r="29" spans="1:18" hidden="1">
+      <c r="A29" s="18">
+        <v>120090</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="20">
+        <v>108001</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="21">
+        <v>108003</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H29" s="22">
+        <v>10108</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="23">
+        <v>10109</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M29" s="18">
+        <v>101</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="18">
+        <v>11</v>
+      </c>
+      <c r="P29" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>39203</v>
+      </c>
+      <c r="R29" s="19">
+        <v>39964</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" hidden="1">
+      <c r="A30" s="18">
+        <v>120096</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="16">
+        <v>108001</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="18">
+        <v>108001</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H30" s="16">
+        <v>10108</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="18">
+        <v>10108</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M30" s="18">
+        <v>101</v>
+      </c>
+      <c r="N30" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O30" s="18">
+        <v>11</v>
+      </c>
+      <c r="P30" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="19">
+        <v>39249</v>
+      </c>
+      <c r="R30" s="19">
+        <v>40752</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" hidden="1">
+      <c r="A31" s="18">
+        <v>120100</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="16">
+        <v>107002</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="18">
+        <v>107002</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H31" s="16">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="18">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M31" s="18">
+        <v>101</v>
+      </c>
+      <c r="N31" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O31" s="18">
+        <v>11</v>
+      </c>
+      <c r="P31" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="19">
+        <v>39353</v>
+      </c>
+      <c r="R31" s="18"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="18">
+        <v>120101</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="20">
+        <v>107002</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="21">
+        <v>110003</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H32" s="22">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="23">
+        <v>10110</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M32" s="18">
+        <v>101</v>
+      </c>
+      <c r="N32" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="18">
+        <v>11</v>
+      </c>
+      <c r="P32" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="19">
+        <v>39356</v>
+      </c>
+      <c r="R32" s="18"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="18">
+        <v>120102</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="20">
+        <v>107002</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="21">
+        <v>110003</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H33" s="22">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="23">
+        <v>10110</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M33" s="18">
+        <v>101</v>
+      </c>
+      <c r="N33" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="18">
+        <v>11</v>
+      </c>
+      <c r="P33" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="19">
+        <v>39353</v>
+      </c>
+      <c r="R33" s="18"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="18">
+        <v>120110</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="20">
+        <v>107002</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="21">
+        <v>110003</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H34" s="22">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="23">
+        <v>10110</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M34" s="18">
+        <v>101</v>
+      </c>
+      <c r="N34" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O34" s="18">
+        <v>11</v>
+      </c>
+      <c r="P34" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="19">
+        <v>39471</v>
+      </c>
+      <c r="R34" s="18"/>
+    </row>
+    <row r="35" spans="1:18" hidden="1">
+      <c r="A35" s="18">
+        <v>120114</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="16">
+        <v>105002</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H35" s="22">
+        <v>10105</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="23">
+        <v>10111</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M35" s="18">
+        <v>101</v>
+      </c>
+      <c r="N35" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="18">
+        <v>11</v>
+      </c>
+      <c r="P35" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="19">
+        <v>39598</v>
+      </c>
+      <c r="R35" s="19">
+        <v>41631</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" hidden="1">
+      <c r="A36" s="18">
+        <v>120115</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="16">
+        <v>107002</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="18">
+        <v>107002</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H36" s="16">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="18">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M36" s="18">
+        <v>101</v>
+      </c>
+      <c r="N36" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O36" s="18">
+        <v>11</v>
+      </c>
+      <c r="P36" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="19">
+        <v>39703</v>
+      </c>
+      <c r="R36" s="18"/>
+    </row>
+    <row r="37" spans="1:18" hidden="1">
+      <c r="A37" s="18">
+        <v>120116</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="16">
+        <v>105002.99999999999</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H37" s="22">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" s="23">
+        <v>10111</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M37" s="18">
+        <v>101</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O37" s="18">
+        <v>11</v>
+      </c>
+      <c r="P37" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="19">
+        <v>39735</v>
+      </c>
+      <c r="R37" s="18"/>
+    </row>
+    <row r="38" spans="1:18" hidden="1">
+      <c r="A38" s="18">
+        <v>120120</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="16">
+        <v>107001.00000000001</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H38" s="16">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="18">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M38" s="18">
+        <v>101</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="18">
+        <v>11</v>
+      </c>
+      <c r="P38" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="19">
+        <v>39710</v>
+      </c>
+      <c r="R38" s="19">
+        <v>42144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" hidden="1">
+      <c r="A39" s="18">
+        <v>120121</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="16">
+        <v>107001.00000000001</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H39" s="16">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" s="18">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M39" s="18">
+        <v>101</v>
+      </c>
+      <c r="N39" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O39" s="18">
+        <v>11</v>
+      </c>
+      <c r="P39" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q39" s="19">
+        <v>39735</v>
+      </c>
+      <c r="R39" s="18"/>
+    </row>
+    <row r="40" spans="1:18" hidden="1">
+      <c r="A40" s="18">
+        <v>120122</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="16">
+        <v>108001</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="18">
+        <v>108001</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H40" s="16">
+        <v>10108</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J40" s="18">
+        <v>10108</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M40" s="18">
+        <v>101</v>
+      </c>
+      <c r="N40" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O40" s="18">
+        <v>11</v>
+      </c>
+      <c r="P40" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="19">
+        <v>39766</v>
+      </c>
+      <c r="R40" s="18"/>
+    </row>
+    <row r="41" spans="1:18" hidden="1">
+      <c r="A41" s="18">
+        <v>120123</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="16">
+        <v>105004.00000000001</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H41" s="22">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="23">
+        <v>10111</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M41" s="18">
+        <v>101</v>
+      </c>
+      <c r="N41" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="18">
+        <v>11</v>
+      </c>
+      <c r="P41" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="19">
+        <v>39810</v>
+      </c>
+      <c r="R41" s="18"/>
+    </row>
+    <row r="42" spans="1:18" hidden="1">
+      <c r="A42" s="18">
+        <v>120124</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="16">
+        <v>105002</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H42" s="22">
+        <v>10105</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" s="23">
+        <v>10111</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M42" s="18">
+        <v>101</v>
+      </c>
+      <c r="N42" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="18">
+        <v>11</v>
+      </c>
+      <c r="P42" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="19">
+        <v>39960</v>
+      </c>
+      <c r="R42" s="18"/>
+    </row>
+    <row r="43" spans="1:18" hidden="1">
+      <c r="A43" s="18">
+        <v>120125</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="16">
+        <v>108001</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="18">
+        <v>108001</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H43" s="16">
+        <v>10108</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J43" s="18">
+        <v>10108</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M43" s="18">
+        <v>101</v>
+      </c>
+      <c r="N43" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="18">
+        <v>11</v>
+      </c>
+      <c r="P43" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="19">
+        <v>39810</v>
+      </c>
+      <c r="R43" s="18"/>
+    </row>
+    <row r="44" spans="1:18" hidden="1">
+      <c r="A44" s="18">
+        <v>120135</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="16">
+        <v>108001</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="18">
+        <v>108001</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H44" s="16">
+        <v>10108</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J44" s="18">
+        <v>10108</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M44" s="18">
+        <v>101</v>
+      </c>
+      <c r="N44" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="18">
+        <v>11</v>
+      </c>
+      <c r="P44" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="19">
+        <v>40312</v>
+      </c>
+      <c r="R44" s="18"/>
+    </row>
+    <row r="45" spans="1:18" hidden="1">
+      <c r="A45" s="18">
+        <v>120136</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="16">
+        <v>108001</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="18">
+        <v>108001</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H45" s="16">
+        <v>10108</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J45" s="18">
+        <v>10108</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="L45" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M45" s="18">
+        <v>101</v>
+      </c>
+      <c r="N45" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="18">
+        <v>11</v>
+      </c>
+      <c r="P45" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="19">
+        <v>40085</v>
+      </c>
+      <c r="R45" s="19">
+        <v>40784</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" hidden="1">
+      <c r="A46" s="18">
+        <v>120137</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="16">
+        <v>105002</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H46" s="22">
+        <v>10105</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="23">
+        <v>10111</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M46" s="18">
+        <v>101</v>
+      </c>
+      <c r="N46" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="18">
+        <v>11</v>
+      </c>
+      <c r="P46" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="19">
+        <v>40040</v>
+      </c>
+      <c r="R46" s="19">
+        <v>41733</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" hidden="1">
+      <c r="A47" s="18">
+        <v>120141</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="16">
+        <v>107002</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="18">
+        <v>107002</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H47" s="16">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="18">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="L47" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M47" s="18">
+        <v>101</v>
+      </c>
+      <c r="N47" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="18">
+        <v>11</v>
+      </c>
+      <c r="P47" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="19">
+        <v>40338</v>
+      </c>
+      <c r="R47" s="18"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="18">
+        <v>120145</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="20">
+        <v>107002</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="21">
+        <v>110003</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H48" s="22">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" s="23">
+        <v>10110</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M48" s="18">
+        <v>101</v>
+      </c>
+      <c r="N48" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="18">
+        <v>11</v>
+      </c>
+      <c r="P48" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="19">
+        <v>40206</v>
+      </c>
+      <c r="R48" s="18"/>
+    </row>
+    <row r="49" spans="1:18" hidden="1">
+      <c r="A49" s="18">
+        <v>120149</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="16">
+        <v>105002.99999999999</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="18"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H49" s="22">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" s="23">
+        <v>10111</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L49" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M49" s="18">
+        <v>101</v>
+      </c>
+      <c r="N49" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="18">
+        <v>11</v>
+      </c>
+      <c r="P49" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="19">
+        <v>40411</v>
+      </c>
+      <c r="R49" s="18"/>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="18">
+        <v>120153</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="20">
+        <v>107002</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="21">
+        <v>110003</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H50" s="22">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J50" s="23">
+        <v>10110</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="L50" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M50" s="18">
+        <v>101</v>
+      </c>
+      <c r="N50" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O50" s="18">
+        <v>11</v>
+      </c>
+      <c r="P50" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q50" s="19">
+        <v>40541</v>
+      </c>
+      <c r="R50" s="18"/>
+    </row>
+    <row r="51" spans="1:18" hidden="1">
+      <c r="A51" s="18">
+        <v>120156</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="20">
+        <v>108001</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="21">
+        <v>108003</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H51" s="22">
+        <v>10108</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J51" s="23">
+        <v>10109</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="L51" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M51" s="18">
+        <v>101</v>
+      </c>
+      <c r="N51" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O51" s="18">
+        <v>11</v>
+      </c>
+      <c r="P51" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q51" s="19">
+        <v>40611</v>
+      </c>
+      <c r="R51" s="18"/>
+    </row>
+    <row r="52" spans="1:18" hidden="1">
+      <c r="A52" s="18">
+        <v>120157</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="20">
+        <v>108001</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="21">
+        <v>108003</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H52" s="22">
+        <v>10108</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J52" s="23">
+        <v>10109</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M52" s="18">
+        <v>101</v>
+      </c>
+      <c r="N52" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="18">
+        <v>11</v>
+      </c>
+      <c r="P52" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="19">
+        <v>40661</v>
+      </c>
+      <c r="R52" s="19">
+        <v>42304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" hidden="1">
+      <c r="A53" s="18">
+        <v>120159</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="16">
+        <v>108001</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="18">
+        <v>108001</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H53" s="16">
+        <v>10108</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J53" s="18">
+        <v>10108</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="L53" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M53" s="18">
+        <v>101</v>
+      </c>
+      <c r="N53" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O53" s="18">
+        <v>11</v>
+      </c>
+      <c r="P53" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q53" s="19">
+        <v>40722</v>
+      </c>
+      <c r="R53" s="18"/>
+    </row>
+    <row r="54" spans="1:18" hidden="1">
+      <c r="A54" s="18">
+        <v>120161</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="20">
+        <v>108001</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="21">
+        <v>108003</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H54" s="22">
+        <v>10108</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J54" s="23">
+        <v>10109</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M54" s="18">
+        <v>101</v>
+      </c>
+      <c r="N54" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="18">
+        <v>11</v>
+      </c>
+      <c r="P54" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="19">
+        <v>40724</v>
+      </c>
+      <c r="R54" s="18"/>
+    </row>
+    <row r="55" spans="1:18" hidden="1">
+      <c r="A55" s="18">
+        <v>120163</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="20">
+        <v>108001</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="21">
+        <v>108003</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H55" s="22">
+        <v>10108</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J55" s="23">
+        <v>10109</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="L55" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M55" s="18">
+        <v>101</v>
+      </c>
+      <c r="N55" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O55" s="18">
+        <v>11</v>
+      </c>
+      <c r="P55" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q55" s="19">
+        <v>40760</v>
+      </c>
+      <c r="R55" s="18"/>
+    </row>
+    <row r="56" spans="1:18" hidden="1">
+      <c r="A56" s="18">
+        <v>120164</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="20">
+        <v>108001</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="21">
+        <v>108003</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H56" s="22">
+        <v>10108</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J56" s="23">
+        <v>10109</v>
+      </c>
+      <c r="K56" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="L56" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M56" s="18">
+        <v>101</v>
+      </c>
+      <c r="N56" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O56" s="18">
+        <v>11</v>
+      </c>
+      <c r="P56" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q56" s="19">
+        <v>40847</v>
+      </c>
+      <c r="R56" s="18"/>
+    </row>
+    <row r="57" spans="1:18" hidden="1">
+      <c r="A57" s="18">
+        <v>120166</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="16">
+        <v>108001</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="18">
+        <v>108001</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H57" s="16">
+        <v>10108</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J57" s="18">
+        <v>10108</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M57" s="18">
+        <v>101</v>
+      </c>
+      <c r="N57" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="18">
+        <v>11</v>
+      </c>
+      <c r="P57" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="19">
+        <v>40847</v>
+      </c>
+      <c r="R57" s="19">
+        <v>42144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" hidden="1">
+      <c r="A58" s="18">
+        <v>120167</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="16">
+        <v>108001</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="18">
+        <v>108001</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H58" s="16">
+        <v>10108</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J58" s="18">
+        <v>10108</v>
+      </c>
+      <c r="K58" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="L58" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M58" s="18">
+        <v>101</v>
+      </c>
+      <c r="N58" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="18">
+        <v>11</v>
+      </c>
+      <c r="P58" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="19">
+        <v>40847</v>
+      </c>
+      <c r="R58" s="18"/>
+    </row>
+    <row r="59" spans="1:18" hidden="1">
+      <c r="A59" s="18">
+        <v>120169</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="16">
+        <v>105002.99999999999</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="18"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H59" s="22">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J59" s="23">
+        <v>10111</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M59" s="18">
+        <v>101</v>
+      </c>
+      <c r="N59" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="18">
+        <v>11</v>
+      </c>
+      <c r="P59" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="19">
+        <v>40899</v>
+      </c>
+      <c r="R59" s="18"/>
+    </row>
+    <row r="60" spans="1:18" hidden="1">
+      <c r="A60" s="18">
+        <v>120171</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="16">
+        <v>105004.00000000001</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" s="18"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H60" s="22">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" s="23">
+        <v>10111</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M60" s="18">
+        <v>101</v>
+      </c>
+      <c r="N60" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="18">
+        <v>11</v>
+      </c>
+      <c r="P60" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="19">
+        <v>41011</v>
+      </c>
+      <c r="R60" s="18"/>
+    </row>
+    <row r="61" spans="1:18" hidden="1">
+      <c r="A61" s="18">
+        <v>120175</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="16">
+        <v>105002</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="18"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="H61" s="22">
+        <v>10105</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" s="23">
+        <v>10111</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M61" s="18">
+        <v>101</v>
+      </c>
+      <c r="N61" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O61" s="18">
+        <v>11</v>
+      </c>
+      <c r="P61" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q61" s="19">
+        <v>41305</v>
+      </c>
+      <c r="R61" s="19">
+        <v>41967</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" hidden="1">
+      <c r="A62" s="18">
+        <v>120176</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="16">
+        <v>107002</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="18">
+        <v>107002</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H62" s="16">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J62" s="18">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="K62" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M62" s="18">
+        <v>101</v>
+      </c>
+      <c r="N62" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="18">
+        <v>11</v>
+      </c>
+      <c r="P62" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="19">
+        <v>41081</v>
+      </c>
+      <c r="R62" s="18"/>
+    </row>
+    <row r="63" spans="1:18" hidden="1">
+      <c r="A63" s="18">
+        <v>120181</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="16">
+        <v>105002</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="18"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H63" s="22">
+        <v>10105</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J63" s="23">
+        <v>10111</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L63" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M63" s="18">
+        <v>101</v>
+      </c>
+      <c r="N63" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O63" s="18">
+        <v>11</v>
+      </c>
+      <c r="P63" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q63" s="19">
+        <v>41158</v>
+      </c>
+      <c r="R63" s="19">
+        <v>42639</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" hidden="1">
+      <c r="A64" s="18">
+        <v>120184</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="16">
+        <v>105002</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="18"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H64" s="22">
+        <v>10105</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64" s="23">
+        <v>10111</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L64" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M64" s="18">
+        <v>101</v>
+      </c>
+      <c r="N64" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O64" s="18">
+        <v>11</v>
+      </c>
+      <c r="P64" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q64" s="19">
+        <v>41270</v>
+      </c>
+      <c r="R64" s="19">
+        <v>42304</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" hidden="1">
+      <c r="A65" s="18">
+        <v>120186</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="16">
+        <v>107001.00000000001</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" s="18"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H65" s="16">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J65" s="18">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="K65" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="L65" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M65" s="18">
+        <v>101</v>
+      </c>
+      <c r="N65" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O65" s="18">
+        <v>11</v>
+      </c>
+      <c r="P65" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q65" s="19">
+        <v>41242</v>
+      </c>
+      <c r="R65" s="18"/>
+    </row>
+    <row r="66" spans="1:18" hidden="1">
+      <c r="A66" s="18">
+        <v>120189</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" s="20">
+        <v>108001</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E66" s="21">
+        <v>108003</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H66" s="22">
+        <v>10108</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J66" s="23">
+        <v>10109</v>
+      </c>
+      <c r="K66" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="L66" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M66" s="18">
+        <v>101</v>
+      </c>
+      <c r="N66" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="18">
+        <v>11</v>
+      </c>
+      <c r="P66" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="19">
+        <v>41305</v>
+      </c>
+      <c r="R66" s="18"/>
+    </row>
+    <row r="67" spans="1:18" hidden="1">
+      <c r="A67" s="18">
+        <v>120190</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" s="16">
+        <v>107001.00000000001</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="18"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H67" s="16">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" s="18">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M67" s="18">
+        <v>101</v>
+      </c>
+      <c r="N67" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O67" s="18">
+        <v>11</v>
+      </c>
+      <c r="P67" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q67" s="19">
+        <v>41305</v>
+      </c>
+      <c r="R67" s="18"/>
+    </row>
+    <row r="68" spans="1:18" hidden="1">
+      <c r="A68" s="18">
+        <v>120191</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" s="16">
+        <v>108001</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68" s="18">
+        <v>108001</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H68" s="16">
+        <v>10108</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J68" s="18">
+        <v>10108</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M68" s="18">
+        <v>101</v>
+      </c>
+      <c r="N68" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O68" s="18">
+        <v>11</v>
+      </c>
+      <c r="P68" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q68" s="19">
+        <v>41417</v>
+      </c>
+      <c r="R68" s="18"/>
+    </row>
+    <row r="69" spans="1:18" hidden="1">
+      <c r="A69" s="18">
+        <v>120193</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" s="16">
+        <v>107001.00000000001</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="18"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H69" s="16">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J69" s="18">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="K69" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="L69" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M69" s="18">
+        <v>101</v>
+      </c>
+      <c r="N69" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O69" s="18">
+        <v>11</v>
+      </c>
+      <c r="P69" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q69" s="19">
+        <v>41578</v>
+      </c>
+      <c r="R69" s="18"/>
+    </row>
+    <row r="70" spans="1:18" hidden="1">
+      <c r="A70" s="18">
+        <v>120196</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="16">
+        <v>107001.00000000001</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" s="18"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H70" s="16">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J70" s="18">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="K70" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="L70" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M70" s="18">
+        <v>101</v>
+      </c>
+      <c r="N70" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O70" s="18">
+        <v>11</v>
+      </c>
+      <c r="P70" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q70" s="19">
+        <v>41545</v>
+      </c>
+      <c r="R70" s="18"/>
+    </row>
+    <row r="71" spans="1:18" hidden="1">
+      <c r="A71" s="18">
+        <v>120200</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="20">
+        <v>108001</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E71" s="21">
+        <v>108003</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H71" s="22">
+        <v>10108</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J71" s="23">
+        <v>10109</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="L71" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M71" s="18">
+        <v>101</v>
+      </c>
+      <c r="N71" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O71" s="18">
+        <v>11</v>
+      </c>
+      <c r="P71" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q71" s="19">
+        <v>41594</v>
+      </c>
+      <c r="R71" s="18"/>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" s="18">
+        <v>120201</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" s="20">
+        <v>107002</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="21">
+        <v>110003</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H72" s="22">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J72" s="23">
+        <v>10110</v>
+      </c>
+      <c r="K72" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="L72" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M72" s="18">
+        <v>101</v>
+      </c>
+      <c r="N72" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="18">
+        <v>11</v>
+      </c>
+      <c r="P72" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="19">
+        <v>41606</v>
+      </c>
+      <c r="R72" s="18"/>
+    </row>
+    <row r="73" spans="1:18" hidden="1">
+      <c r="A73" s="18">
+        <v>120204</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" s="16">
+        <v>105002.99999999999</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="18"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H73" s="22">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="I73" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J73" s="23">
+        <v>10111</v>
+      </c>
+      <c r="K73" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L73" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M73" s="18">
+        <v>101</v>
+      </c>
+      <c r="N73" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O73" s="18">
+        <v>11</v>
+      </c>
+      <c r="P73" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q73" s="19">
+        <v>41620</v>
+      </c>
+      <c r="R73" s="18"/>
+    </row>
+    <row r="74" spans="1:18" hidden="1">
+      <c r="A74" s="18">
+        <v>120205</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="16">
+        <v>105002.99999999999</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="18"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H74" s="22">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="I74" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J74" s="23">
+        <v>10111</v>
+      </c>
+      <c r="K74" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L74" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M74" s="18">
+        <v>101</v>
+      </c>
+      <c r="N74" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O74" s="18">
+        <v>11</v>
+      </c>
+      <c r="P74" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q74" s="19">
+        <v>41620</v>
+      </c>
+      <c r="R74" s="18"/>
+    </row>
+    <row r="75" spans="1:18" hidden="1">
+      <c r="A75" s="18">
+        <v>120206</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" s="16">
+        <v>105002.99999999999</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="18"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H75" s="22">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="I75" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J75" s="23">
+        <v>10111</v>
+      </c>
+      <c r="K75" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L75" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M75" s="18">
+        <v>101</v>
+      </c>
+      <c r="N75" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O75" s="18">
+        <v>11</v>
+      </c>
+      <c r="P75" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q75" s="19">
+        <v>41615</v>
+      </c>
+      <c r="R75" s="18"/>
+    </row>
+    <row r="76" spans="1:18" hidden="1">
+      <c r="A76" s="18">
+        <v>120208</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C76" s="20">
+        <v>107002</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="21">
+        <v>107003</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H76" s="16">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I76" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J76" s="18">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="K76" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="L76" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M76" s="18">
+        <v>101</v>
+      </c>
+      <c r="N76" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="18">
+        <v>11</v>
+      </c>
+      <c r="P76" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="19">
+        <v>41632</v>
+      </c>
+      <c r="R76" s="18"/>
+    </row>
+    <row r="77" spans="1:18" hidden="1">
+      <c r="A77" s="18">
+        <v>120215</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C77" s="20">
+        <v>108001</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E77" s="21">
+        <v>108003</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H77" s="22">
+        <v>10108</v>
+      </c>
+      <c r="I77" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J77" s="23">
+        <v>10109</v>
+      </c>
+      <c r="K77" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="L77" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M77" s="18">
+        <v>101</v>
+      </c>
+      <c r="N77" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O77" s="18">
+        <v>11</v>
+      </c>
+      <c r="P77" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q77" s="19">
+        <v>41856</v>
+      </c>
+      <c r="R77" s="18"/>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" s="18">
+        <v>120216</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C78" s="20">
+        <v>107002</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="21">
+        <v>110003</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H78" s="22">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J78" s="23">
+        <v>10110</v>
+      </c>
+      <c r="K78" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="L78" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M78" s="18">
+        <v>101</v>
+      </c>
+      <c r="N78" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O78" s="18">
+        <v>11</v>
+      </c>
+      <c r="P78" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q78" s="19">
+        <v>41879</v>
+      </c>
+      <c r="R78" s="18"/>
+    </row>
+    <row r="79" spans="1:18" hidden="1">
+      <c r="A79" s="18">
+        <v>120232</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="16">
+        <v>108001</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E79" s="18">
+        <v>108001</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H79" s="16">
+        <v>10108</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J79" s="18">
+        <v>10108</v>
+      </c>
+      <c r="K79" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="L79" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M79" s="18">
+        <v>101</v>
+      </c>
+      <c r="N79" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O79" s="18">
+        <v>11</v>
+      </c>
+      <c r="P79" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q79" s="19">
+        <v>42302</v>
+      </c>
+      <c r="R79" s="18"/>
+    </row>
+    <row r="80" spans="1:18" hidden="1">
+      <c r="A80" s="18">
+        <v>120236</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C80" s="20">
+        <v>108001</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E80" s="21">
+        <v>108003</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H80" s="22">
+        <v>10108</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J80" s="23">
+        <v>10109</v>
+      </c>
+      <c r="K80" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="L80" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M80" s="18">
+        <v>101</v>
+      </c>
+      <c r="N80" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="18">
+        <v>11</v>
+      </c>
+      <c r="P80" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q80" s="19">
+        <v>42546</v>
+      </c>
+      <c r="R80" s="18"/>
+    </row>
+    <row r="81" spans="1:18" hidden="1">
+      <c r="A81" s="18">
+        <v>120239</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C81" s="20">
+        <v>108001</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E81" s="21">
+        <v>108003</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H81" s="22">
+        <v>10108</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J81" s="23">
+        <v>10109</v>
+      </c>
+      <c r="K81" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="L81" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M81" s="18">
+        <v>101</v>
+      </c>
+      <c r="N81" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="18">
+        <v>11</v>
+      </c>
+      <c r="P81" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="19">
+        <v>42622</v>
+      </c>
+      <c r="R81" s="18"/>
+    </row>
+    <row r="82" spans="1:18" hidden="1">
+      <c r="A82" s="18">
+        <v>120246</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C82" s="16">
+        <v>107002</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" s="18">
+        <v>107002</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H82" s="16">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I82" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J82" s="18">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="K82" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="L82" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M82" s="18">
+        <v>101</v>
+      </c>
+      <c r="N82" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O82" s="18">
+        <v>11</v>
+      </c>
+      <c r="P82" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q82" s="19">
+        <v>42370</v>
+      </c>
+      <c r="R82" s="18"/>
+    </row>
+    <row r="83" spans="1:18" hidden="1">
+      <c r="A83" s="18">
+        <v>120247</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C83" s="16">
+        <v>108001</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" s="18">
+        <v>108001</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H83" s="16">
+        <v>10108</v>
+      </c>
+      <c r="I83" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J83" s="18">
+        <v>10108</v>
+      </c>
+      <c r="K83" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="L83" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M83" s="18">
+        <v>101</v>
+      </c>
+      <c r="N83" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="18">
+        <v>11</v>
+      </c>
+      <c r="P83" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="19">
+        <v>42401</v>
+      </c>
+      <c r="R83" s="18"/>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" s="18">
+        <v>120252</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C84" s="20">
+        <v>107002</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" s="21">
+        <v>110003</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H84" s="22">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I84" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J84" s="23">
+        <v>10110</v>
+      </c>
+      <c r="K84" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="L84" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M84" s="18">
+        <v>101</v>
+      </c>
+      <c r="N84" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O84" s="18">
+        <v>11</v>
+      </c>
+      <c r="P84" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q84" s="19">
+        <v>42531</v>
+      </c>
+      <c r="R84" s="18"/>
+    </row>
+    <row r="85" spans="1:18" hidden="1">
+      <c r="A85" s="18">
+        <v>120257</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C85" s="16">
+        <v>107001.00000000001</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E85" s="18"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="H85" s="16">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="I85" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J85" s="18">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="K85" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="L85" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M85" s="18">
+        <v>101</v>
+      </c>
+      <c r="N85" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O85" s="18">
+        <v>11</v>
+      </c>
+      <c r="P85" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q85" s="19">
+        <v>42623</v>
+      </c>
+      <c r="R85" s="18"/>
+    </row>
+    <row r="86" spans="1:18" hidden="1">
+      <c r="A86" s="18">
+        <v>120260</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="C86" s="16">
+        <v>107001.00000000001</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E86" s="18"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H86" s="16">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="I86" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J86" s="18">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="K86" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="L86" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M86" s="18">
+        <v>101</v>
+      </c>
+      <c r="N86" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O86" s="18">
+        <v>11</v>
+      </c>
+      <c r="P86" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q86" s="19">
+        <v>42640</v>
+      </c>
+      <c r="R86" s="18"/>
+    </row>
+    <row r="87" spans="1:18" hidden="1">
+      <c r="A87" s="18">
+        <v>120267</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C87" s="16">
+        <v>108001</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E87" s="18">
+        <v>108001</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H87" s="16">
+        <v>10108</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J87" s="18">
+        <v>10108</v>
+      </c>
+      <c r="K87" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="L87" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="M87" s="18">
+        <v>101</v>
+      </c>
+      <c r="N87" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O87" s="18">
+        <v>11</v>
+      </c>
+      <c r="P87" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q87" s="19">
+        <v>42744</v>
+      </c>
+      <c r="R87" s="18"/>
+    </row>
+    <row r="88" spans="1:18" hidden="1">
+      <c r="A88" s="18">
+        <v>120271</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C88" s="16">
+        <v>105002.99999999999</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="18"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="H88" s="22">
+        <v>10103.999999999998</v>
+      </c>
+      <c r="I88" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J88" s="23">
+        <v>10111</v>
+      </c>
+      <c r="K88" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L88" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M88" s="18">
+        <v>101</v>
+      </c>
+      <c r="N88" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O88" s="18">
+        <v>11</v>
+      </c>
+      <c r="P88" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q88" s="19">
+        <v>42727</v>
+      </c>
+      <c r="R88" s="18"/>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" s="18">
+        <v>120272</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C89" s="20">
+        <v>107002</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" s="21">
+        <v>110003</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H89" s="22">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I89" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J89" s="23">
+        <v>10110</v>
+      </c>
+      <c r="K89" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="L89" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M89" s="18">
+        <v>101</v>
+      </c>
+      <c r="N89" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="18">
+        <v>11</v>
+      </c>
+      <c r="P89" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="19">
+        <v>42670</v>
+      </c>
+      <c r="R89" s="18"/>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" s="18">
+        <v>120273</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C90" s="20">
+        <v>107002</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" s="21">
+        <v>110003</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H90" s="22">
+        <v>10106.999999999998</v>
+      </c>
+      <c r="I90" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J90" s="23">
+        <v>10110</v>
+      </c>
+      <c r="K90" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="L90" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M90" s="18">
+        <v>101</v>
+      </c>
+      <c r="N90" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O90" s="18">
+        <v>11</v>
+      </c>
+      <c r="P90" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q90" s="19">
+        <v>42685</v>
+      </c>
+      <c r="R90" s="18"/>
+    </row>
+    <row r="91" spans="1:18" hidden="1">
+      <c r="A91" s="18">
+        <v>120276</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C91" s="20">
+        <v>108001</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E91" s="21">
+        <v>108003</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H91" s="22">
+        <v>10108</v>
+      </c>
+      <c r="I91" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J91" s="23">
+        <v>10109</v>
+      </c>
+      <c r="K91" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="L91" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="M91" s="18">
+        <v>101</v>
+      </c>
+      <c r="N91" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="18">
+        <v>11</v>
+      </c>
+      <c r="P91" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="19">
+        <v>42703</v>
+      </c>
+      <c r="R91" s="18"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:R91">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="10110"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>